--- a/Properties Sold.xlsx
+++ b/Properties Sold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shekh\Downloads\RMIT\Semester 3\Time Series Analysis\time-series-analysis-assignment-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shekh\Downloads\Vitable\time-series-analysis-assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DDB913-7876-4EE8-BECA-457119B033C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FF6ED8-CC10-4679-804F-D60BC0DAC3C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1C756538-6BA9-4B4D-A234-D2785DA9697D}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Properties Sold</t>
+    <t>Properties_Sold</t>
   </si>
 </sst>
 </file>
@@ -180,17 +180,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +514,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
